--- a/words_database.xlsx
+++ b/words_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,30 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>bonsoir</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>good afternoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>téléphone</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/words_database.xlsx
+++ b/words_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,30 +1657,6 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>bonsoir</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>good afternoon</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>téléphone</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/words_database.xlsx
+++ b/words_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,42 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>nous</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>vous</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>you all</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>bonne nuit</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>good night</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
